--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>3.922625326993233</v>
+        <v>3.100992589961451</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>70.88850209079619</v>
+        <v>70.91120726548422</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>0.0001099427400106407</v>
+        <v>-0.0004327642678354389</v>
       </c>
     </row>
     <row r="39">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>6.282111553326359</v>
+        <v>7.104063194937617</v>
       </c>
     </row>
     <row r="41">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D49" s="7" t="n">
-        <v>2.980232238769531e-08</v>
+        <v>-2.980232238769531e-08</v>
       </c>
     </row>
     <row r="50">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-1106151.284012488</v>
+        <v>-6563531.254794854</v>
       </c>
     </row>
     <row r="51">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>-26425.66355516203</v>
+        <v>104018.5367347449</v>
       </c>
     </row>
     <row r="52" ht="40.8" customHeight="1">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="14.4" customHeight="1">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="59" ht="14.4" customHeight="1">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>24.988</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="31.8" customHeight="1">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="D69" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>44.13382562299425</v>
+        <v>44.146</v>
       </c>
     </row>
     <row r="78">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="D81" s="23" t="n">
-        <v>15.988</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>16.125</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="85" ht="14.4" customHeight="1">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>30.06091281149713</v>
+        <v>30.073</v>
       </c>
     </row>
     <row r="86" ht="14.4" customHeight="1">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>44.13382562299425</v>
+        <v>44.146</v>
       </c>
     </row>
     <row r="90" ht="36.6" customHeight="1">

--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D8" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="28.8" customHeight="1">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91%</t>
+          <t>46.5347</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>3.100992589961451</v>
+        <v>2.590607086687617</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>70.91120726548422</v>
+        <v>70.8839227245594</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>-0.0004327642678354389</v>
+        <v>1.79106342960379e-06</v>
       </c>
     </row>
     <row r="39">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.104063194937617</v>
+        <v>7.613924182893339</v>
       </c>
     </row>
     <row r="41">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D49" s="7" t="n">
-        <v>-2.980232238769531e-08</v>
+        <v>2.980232238769531e-08</v>
       </c>
     </row>
     <row r="50">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-6563531.254794854</v>
+        <v>-5462.039249679584</v>
       </c>
     </row>
     <row r="51">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>104018.5367347449</v>
+        <v>-430.4971805512905</v>
       </c>
     </row>
     <row r="52" ht="40.8" customHeight="1">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>-2256300</v>
+        <v>-52929855</v>
       </c>
     </row>
     <row r="57" ht="14.4" customHeight="1">
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2400319.14893617</v>
+        <v>5739893.617021277</v>
       </c>
     </row>
     <row r="66">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>-2256300</v>
+        <v>-52929855</v>
       </c>
     </row>
     <row r="68" ht="14.4" customHeight="1">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>44.146</v>
+        <v>44.13382562299425</v>
       </c>
     </row>
     <row r="78">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="D81" s="23" t="n">
-        <v>16</v>
+        <v>15.988</v>
       </c>
     </row>
     <row r="82">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>16.13</v>
+        <v>16.125</v>
       </c>
     </row>
     <row r="85" ht="14.4" customHeight="1">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>30.073</v>
+        <v>30.06091281149713</v>
       </c>
     </row>
     <row r="86" ht="14.4" customHeight="1">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>44.146</v>
+        <v>44.13382562299425</v>
       </c>
     </row>
     <row r="90" ht="36.6" customHeight="1">

--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>25</v>
+        <v>24.988</v>
       </c>
     </row>
     <row r="60" ht="31.8" customHeight="1">
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>10</v>
+        <v>9.999999999999819</v>
       </c>
     </row>
     <row r="76">
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="D79" s="23" t="n">
-        <v>10</v>
+        <v>9.999999999999819</v>
       </c>
     </row>
     <row r="80">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>10</v>
+        <v>9.999999999999819</v>
       </c>
     </row>
     <row r="84">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="D87" s="7" t="n">
-        <v>10</v>
+        <v>9.999999999999819</v>
       </c>
     </row>
     <row r="88">

--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D8" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="28.8" customHeight="1">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>46.5347</t>
+          <t>46.5378</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="D12" s="22" t="n">
-        <v>470550.3126380809</v>
+        <v>470659.0411009961</v>
       </c>
     </row>
     <row r="13" ht="35.4" customHeight="1">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2.590607086687617</v>
+        <v>2.592784728379922</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>23.976</t>
+          <t>23.98</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>14.988</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>7.988</t>
+          <t>7.99</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D36" s="23" t="n">
-        <v>-240358422.507975</v>
+        <v>-240462406.8648</v>
       </c>
     </row>
     <row r="37">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>70.8839227245594</v>
+        <v>70.882868698804</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>1.79106342960379e-06</v>
+        <v>-7.530965586057507e-07</v>
       </c>
     </row>
     <row r="39">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.613924182893339</v>
+        <v>7.613300179624092</v>
       </c>
     </row>
     <row r="41">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>240358422.507975</v>
+        <v>240462406.8648</v>
       </c>
     </row>
     <row r="44">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>70.8839</v>
+        <v>70.8827</v>
       </c>
     </row>
     <row r="45">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="D46" s="7" t="n">
-        <v>4.2096</v>
+        <v>4.2107</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-5462.039249679584</v>
+        <v>-40565.72044589418</v>
       </c>
     </row>
     <row r="51">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>-430.4971805512905</v>
+        <v>181.0914110839367</v>
       </c>
     </row>
     <row r="52" ht="40.8" customHeight="1">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>24.988</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="60" ht="31.8" customHeight="1">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>44.13382562299425</v>
+        <v>44.13582562299425</v>
       </c>
     </row>
     <row r="78">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="D81" s="23" t="n">
-        <v>15.988</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="82">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>30.06091281149713</v>
+        <v>30.06291281149713</v>
       </c>
     </row>
     <row r="86" ht="14.4" customHeight="1">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>44.13382562299425</v>
+        <v>44.13582562299425</v>
       </c>
     </row>
     <row r="90" ht="36.6" customHeight="1">

--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2.592784728379922</v>
+        <v>2.606932943389867</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>70.882868698804</v>
+        <v>70.8879083601848</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.613300179624092</v>
+        <v>7.599151964614147</v>
       </c>
     </row>
     <row r="41">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-40565.72044589418</v>
+        <v>-1252414.825854702</v>
       </c>
     </row>
     <row r="51">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>32</v>
+        <v>31.99999999999678</v>
       </c>
     </row>
     <row r="58" ht="14.4" customHeight="1">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" ht="14.4" customHeight="1">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>24.99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="31.8" customHeight="1">

--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -2170,7 +2170,9 @@
           <t>[Nm]</t>
         </is>
       </c>
-      <c r="D92" s="7" t="n"/>
+      <c r="D92" s="7" t="n">
+        <v>237773840.7895006</v>
+      </c>
     </row>
     <row r="93" ht="31.8" customHeight="1">
       <c r="B93" s="16">
@@ -2182,7 +2184,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D93" s="7" t="n"/>
+      <c r="D93" s="7" t="n">
+        <v>100.24</v>
+      </c>
     </row>
     <row r="94" ht="14.4" customHeight="1">
       <c r="B94" s="15" t="inlineStr">
@@ -2195,7 +2199,9 @@
           <t>[N/m2]</t>
         </is>
       </c>
-      <c r="D94" s="7" t="n"/>
+      <c r="D94" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" ht="36" customHeight="1">
       <c r="B95" s="16">
@@ -2207,7 +2213,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D95" s="7" t="n"/>
+      <c r="D95" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" ht="14.4" customHeight="1">
       <c r="B96" s="15" t="inlineStr">
@@ -2220,7 +2228,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D96" s="7" t="n"/>
+      <c r="D96" s="7" t="n">
+        <v>0.107273641219796</v>
+      </c>
     </row>
     <row r="97" ht="39.6" customHeight="1">
       <c r="B97" s="16">
@@ -2232,7 +2242,9 @@
           <t>[m]</t>
         </is>
       </c>
-      <c r="D97" s="7" t="n"/>
+      <c r="D97" s="7" t="n">
+        <v>52.43</v>
+      </c>
     </row>
     <row r="98" ht="18" customHeight="1">
       <c r="B98" s="9" t="inlineStr">

--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D8" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="28.8" customHeight="1">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>46.5378</t>
+          <t>46.5362</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="D12" s="22" t="n">
-        <v>470659.0411009961</v>
+        <v>470604.6808160134</v>
       </c>
     </row>
     <row r="13" ht="35.4" customHeight="1">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2.606932943389867</v>
+        <v>2.600089283439491</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>23.978</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>14.99</v>
+        <v>14.989</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>7.989</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D36" s="23" t="n">
-        <v>-240462406.8648</v>
+        <v>-240410412.172575</v>
       </c>
     </row>
     <row r="37">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>70.8879083601848</v>
+        <v>70.88603754917126</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>-7.530965586057507e-07</v>
+        <v>5.371835040324872e-07</v>
       </c>
     </row>
     <row r="39">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.599151964614147</v>
+        <v>7.605268813294003</v>
       </c>
     </row>
     <row r="41">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>240462406.8648</v>
+        <v>240410412.172575</v>
       </c>
     </row>
     <row r="44">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>70.8827</v>
+        <v>70.88330000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="D46" s="7" t="n">
-        <v>4.2107</v>
+        <v>4.2102</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D49" s="7" t="n">
-        <v>2.980232238769531e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-1252414.825854702</v>
+        <v>-658135.3246047234</v>
       </c>
     </row>
     <row r="51">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>181.0914110839367</v>
+        <v>-129.1445076167583</v>
       </c>
     </row>
     <row r="52" ht="40.8" customHeight="1">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>44.13582562299425</v>
+        <v>44.13482562299426</v>
       </c>
     </row>
     <row r="78">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="D81" s="23" t="n">
-        <v>15.99</v>
+        <v>15.989</v>
       </c>
     </row>
     <row r="82">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>30.06291281149713</v>
+        <v>30.06191281149713</v>
       </c>
     </row>
     <row r="86" ht="14.4" customHeight="1">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>44.13582562299425</v>
+        <v>44.13482562299426</v>
       </c>
     </row>
     <row r="90" ht="36.6" customHeight="1">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="D92" s="7" t="n">
-        <v>237773840.7895006</v>
+        <v>246026547.9879612</v>
       </c>
     </row>
     <row r="93" ht="31.8" customHeight="1">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="D93" s="7" t="n">
-        <v>100.24</v>
+        <v>100.75</v>
       </c>
     </row>
     <row r="94" ht="14.4" customHeight="1">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>0.107273641219796</v>
+        <v>0.02420191004349861</v>
       </c>
     </row>
     <row r="97" ht="39.6" customHeight="1">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="D97" s="7" t="n">
-        <v>52.43</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1">

--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D8" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="28.8" customHeight="1">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>46.5362</t>
+          <t>46.5378</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="D12" s="22" t="n">
-        <v>470604.6808160134</v>
+        <v>470659.0411009961</v>
       </c>
     </row>
     <row r="13" ht="35.4" customHeight="1">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2.600089283439491</v>
+        <v>2.606932943389867</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>23.978</t>
+          <t>23.98</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>14.989</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>7.989</t>
+          <t>7.99</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D36" s="23" t="n">
-        <v>-240410412.172575</v>
+        <v>-240462406.8648</v>
       </c>
     </row>
     <row r="37">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>70.88603754917126</v>
+        <v>70.8879083601848</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>5.371835040324872e-07</v>
+        <v>-7.530965586057507e-07</v>
       </c>
     </row>
     <row r="39">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.605268813294003</v>
+        <v>7.599151964614147</v>
       </c>
     </row>
     <row r="41">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>240410412.172575</v>
+        <v>240462406.8648</v>
       </c>
     </row>
     <row r="44">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>70.88330000000001</v>
+        <v>70.8827</v>
       </c>
     </row>
     <row r="45">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="D46" s="7" t="n">
-        <v>4.2102</v>
+        <v>4.2107</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D49" s="7" t="n">
-        <v>0</v>
+        <v>2.980232238769531e-08</v>
       </c>
     </row>
     <row r="50">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-658135.3246047234</v>
+        <v>-1252414.825854702</v>
       </c>
     </row>
     <row r="51">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>-129.1445076167583</v>
+        <v>181.0914110839367</v>
       </c>
     </row>
     <row r="52" ht="40.8" customHeight="1">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>44.13482562299426</v>
+        <v>44.13582562299425</v>
       </c>
     </row>
     <row r="78">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="D81" s="23" t="n">
-        <v>15.989</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="82">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>30.06191281149713</v>
+        <v>30.06291281149713</v>
       </c>
     </row>
     <row r="86" ht="14.4" customHeight="1">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>44.13482562299426</v>
+        <v>44.13582562299425</v>
       </c>
     </row>
     <row r="90" ht="36.6" customHeight="1">

--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D8" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="28.8" customHeight="1">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>46.5378</t>
+          <t>48.913</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="D12" s="22" t="n">
-        <v>470659.0411009961</v>
+        <v>474319.0923626467</v>
       </c>
     </row>
     <row r="13" ht="35.4" customHeight="1">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2.606932943389867</v>
+        <v>2.308680997715307</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>23.976</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>14.99</v>
+        <v>14.988</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>7.988</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D36" s="23" t="n">
-        <v>-240462406.8648</v>
+        <v>-216112001.100075</v>
       </c>
     </row>
     <row r="37">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>70.8879083601848</v>
+        <v>63.72504099021046</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>-7.530965586057507e-07</v>
+        <v>-0.0003346637754472588</v>
       </c>
     </row>
     <row r="39">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.599151964614147</v>
+        <v>7.895757189455036</v>
       </c>
     </row>
     <row r="41">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>240462406.8648</v>
+        <v>216112001.100075</v>
       </c>
     </row>
     <row r="44">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>70.8827</v>
+        <v>63.7442</v>
       </c>
     </row>
     <row r="45">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="D46" s="7" t="n">
-        <v>4.2107</v>
+        <v>4.2101</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>-1252414.825854702</v>
+        <v>4140491.944713414</v>
       </c>
     </row>
     <row r="51">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>181.0914110839367</v>
+        <v>72324.85820761323</v>
       </c>
     </row>
     <row r="52" ht="40.8" customHeight="1">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>44.13582562299425</v>
+        <v>44.13382562299425</v>
       </c>
     </row>
     <row r="78">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="D81" s="23" t="n">
-        <v>15.99</v>
+        <v>15.988</v>
       </c>
     </row>
     <row r="82">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>30.06291281149713</v>
+        <v>30.06091281149713</v>
       </c>
     </row>
     <row r="86" ht="14.4" customHeight="1">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>44.13582562299425</v>
+        <v>44.13382562299425</v>
       </c>
     </row>
     <row r="90" ht="36.6" customHeight="1">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="D92" s="7" t="n">
-        <v>246026547.9879612</v>
+        <v>142467339.8720762</v>
       </c>
     </row>
     <row r="93" ht="31.8" customHeight="1">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="D93" s="7" t="n">
-        <v>100.75</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="94" ht="14.4" customHeight="1">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>0.02420191004349861</v>
+        <v>0.004505828668961587</v>
       </c>
     </row>
     <row r="97" ht="39.6" customHeight="1">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="D97" s="7" t="n">
-        <v>-9</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1">

--- a/Main/Antwoordenblad_MT1463_1466_V03.xlsx
+++ b/Main/Antwoordenblad_MT1463_1466_V03.xlsx
@@ -999,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>48.913</t>
+          <t>46.5394</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="D12" s="22" t="n">
-        <v>474319.0923626467</v>
+        <v>470713.3994855761</v>
       </c>
     </row>
     <row r="13" ht="35.4" customHeight="1">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2.308680997715307</v>
+        <v>2.610927473182101</v>
       </c>
     </row>
     <row r="17" ht="35.4" customHeight="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>23.976</t>
+          <t>23.982</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>14.988</v>
+        <v>14.991</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>7.988</t>
+          <t>7.991</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D36" s="23" t="n">
-        <v>-216112001.100075</v>
+        <v>-240514407.590175</v>
       </c>
     </row>
     <row r="37">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D37" s="23" t="n">
-        <v>63.72504099021046</v>
+        <v>70.88947295013539</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D38" s="23" t="n">
-        <v>-0.0003346637754472588</v>
+        <v>3.554852628455152e-06</v>
       </c>
     </row>
     <row r="39">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="D39" s="23" t="n">
-        <v>7.895757189455036</v>
+        <v>7.595881469508429</v>
       </c>
     </row>
     <row r="41">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>216112001.100075</v>
+        <v>240514407.590175</v>
       </c>
     </row>
     <row r="44">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>63.7442</v>
+        <v>70.88209999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="D46" s="7" t="n">
-        <v>4.2101</v>
+        <v>4.2112</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D50" s="7" t="n">
-        <v>4140491.944713414</v>
+        <v>-1773300.734005458</v>
       </c>
     </row>
     <row r="51">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>72324.85820761323</v>
+        <v>-854.9932740032673</v>
       </c>
     </row>
     <row r="52" ht="40.8" customHeight="1">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>44.13382562299425</v>
+        <v>44.13682562299425</v>
       </c>
     </row>
     <row r="78">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="D81" s="23" t="n">
-        <v>15.988</v>
+        <v>15.991</v>
       </c>
     </row>
     <row r="82">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>30.06091281149713</v>
+        <v>30.06391281149713</v>
       </c>
     </row>
     <row r="86" ht="14.4" customHeight="1">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>44.13382562299425</v>
+        <v>44.13682562299425</v>
       </c>
     </row>
     <row r="90" ht="36.6" customHeight="1">
@@ -2579,9 +2579,9 @@
   </mergeCells>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="8"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>